--- a/files/CARRIAGE/STDHT_MGN9/BOM_HextrudORT_Carriage_STDHT_MGN9.xlsx
+++ b/files/CARRIAGE/STDHT_MGN9/BOM_HextrudORT_Carriage_STDHT_MGN9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HextrudORT\files\CARRIAGE\STDHT_MGN9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8460EB-CCD3-48B0-9C5C-A108120330D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F519EC94-731C-4AC5-9E96-22F0A91A95E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>LDO NEMA 14 Round</t>
-  </si>
-  <si>
-    <t>Bearing 5X9X2.5</t>
   </si>
   <si>
     <t>M3X25_CapScrew_92290A124 v4</t>
@@ -345,6 +342,9 @@
 Spec:
 https://miragec79.github.io/HextrudORT/docs/LDO-36STH17-1004AHG-RevA_1.pdf</t>
     </r>
+  </si>
+  <si>
+    <t>Bearing 5X9X3</t>
   </si>
 </sst>
 </file>
@@ -2313,7 +2313,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2332,13 +2334,13 @@
   <sheetData>
     <row r="1" spans="1:11" s="7" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -2347,16 +2349,16 @@
         <v>1</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -2367,10 +2369,10 @@
     </row>
     <row r="2" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="23">
         <v>1</v>
@@ -2383,94 +2385,94 @@
         <v>6</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" s="27">
         <v>1</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J2" s="24"/>
       <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="12">
         <v>1</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>49</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="12">
         <v>2</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="G4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>48</v>
-      </c>
       <c r="I4" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="17"/>
     </row>
     <row r="5" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="12">
         <v>3</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>31</v>
-      </c>
       <c r="G5" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="15">
         <v>1</v>
@@ -2481,23 +2483,23 @@
     </row>
     <row r="6" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="12">
         <v>4</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="15">
         <v>1</v>
@@ -2508,23 +2510,23 @@
     </row>
     <row r="7" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="12">
         <v>5</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="15">
         <v>3</v>
@@ -2535,23 +2537,23 @@
     </row>
     <row r="8" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="12">
         <v>6</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>15</v>
-      </c>
       <c r="G8" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="15">
         <v>2</v>
@@ -2562,23 +2564,23 @@
     </row>
     <row r="9" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="12">
         <v>17</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>18</v>
-      </c>
       <c r="G9" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="15">
         <v>2</v>
@@ -2589,23 +2591,23 @@
     </row>
     <row r="10" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="12">
         <v>18</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>22</v>
-      </c>
       <c r="G10" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="15">
         <v>1</v>
@@ -2616,23 +2618,23 @@
     </row>
     <row r="11" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="12">
         <v>19</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="15">
         <v>1</v>
@@ -2643,23 +2645,23 @@
     </row>
     <row r="12" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="12">
         <v>20</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>11</v>
-      </c>
       <c r="G12" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="15">
         <v>1</v>
@@ -2670,23 +2672,23 @@
     </row>
     <row r="13" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="12">
         <v>21</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>9</v>
-      </c>
       <c r="G13" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" s="15">
         <v>1</v>
@@ -2697,23 +2699,23 @@
     </row>
     <row r="14" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="12">
         <v>22</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>24</v>
-      </c>
       <c r="G14" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H14" s="15">
         <v>2</v>
@@ -2724,23 +2726,23 @@
     </row>
     <row r="15" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="12">
         <v>23</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="18" t="s">
-        <v>13</v>
-      </c>
       <c r="G15" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="15">
         <v>7</v>
@@ -2751,132 +2753,132 @@
     </row>
     <row r="16" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="12">
         <v>27</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H16" s="15">
         <v>1</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="12">
         <v>28</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="18" t="s">
-        <v>20</v>
-      </c>
       <c r="G17" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17" s="15">
         <v>1</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="12">
         <v>29</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18" s="15">
         <v>2</v>
       </c>
       <c r="I18" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="17" t="s">
         <v>42</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18" s="17" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="12">
         <v>30</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H19" s="15">
         <v>1</v>
       </c>
       <c r="I19" s="16"/>
       <c r="J19" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/files/CARRIAGE/STDHT_MGN9/BOM_HextrudORT_Carriage_STDHT_MGN9.xlsx
+++ b/files/CARRIAGE/STDHT_MGN9/BOM_HextrudORT_Carriage_STDHT_MGN9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HextrudORT\files\CARRIAGE\STDHT_MGN9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F519EC94-731C-4AC5-9E96-22F0A91A95E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F8F31E-32E6-43E0-AD6F-7EFEAE195823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="From Fusion 360" sheetId="1" r:id="rId1"/>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>Screw, Cap - M3X4mm</t>
+  </si>
+  <si>
+    <t>Bearing 5X9X3</t>
   </si>
   <si>
     <r>
@@ -337,14 +340,46 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>DO NOT SET CURRENT HIGHER THAN 0.400ma in your printer config file. Recommended 0.350.
+      <t xml:space="preserve">DO NOT SET CURRENT HIGHER THAN 0.400ma in your printer config file.
 These motors are Class H and are rated for 180C, they can become VERY HOT and might melt your carriage
 Spec:
-https://miragec79.github.io/HextrudORT/docs/LDO-36STH17-1004AHG-RevA_1.pdf</t>
+https://miragec79.github.io/HextrudORT/docs/LDO-36STH17-1004AHG-RevA_1.pdf
+</t>
     </r>
-  </si>
-  <si>
-    <t>Bearing 5X9X3</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Important Note: ref: https://github.com/MirageC79/HextrudORT/issues/9
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Depending on source of components, printing tolerances and the fact that the design clearances are reduced to a minimal, you may need to file/trim a section of the Nema 14 motor to clear the XY cross member.
+This modifcation will not affect motor performance or reliability.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2314,25 +2349,25 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7265625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="53.140625" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1"/>
-    <col min="11" max="11" width="55.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" customWidth="1"/>
+    <col min="5" max="5" width="45.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.1796875" customWidth="1"/>
+    <col min="10" max="10" width="17.81640625" customWidth="1"/>
+    <col min="11" max="11" width="55.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>32</v>
       </c>
@@ -2367,7 +2402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>52</v>
       </c>
@@ -2391,12 +2426,12 @@
         <v>1</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J2" s="24"/>
       <c r="K2" s="29"/>
     </row>
-    <row r="3" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>52</v>
       </c>
@@ -2411,7 +2446,7 @@
         <v>44</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>38</v>
@@ -2425,7 +2460,7 @@
       <c r="J3" s="13"/>
       <c r="K3" s="17"/>
     </row>
-    <row r="4" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>52</v>
       </c>
@@ -2454,7 +2489,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="17"/>
     </row>
-    <row r="5" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>52</v>
       </c>
@@ -2481,7 +2516,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="17"/>
     </row>
-    <row r="6" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>52</v>
       </c>
@@ -2508,7 +2543,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="17"/>
     </row>
-    <row r="7" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>52</v>
       </c>
@@ -2535,7 +2570,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="17"/>
     </row>
-    <row r="8" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>52</v>
       </c>
@@ -2562,7 +2597,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="17"/>
     </row>
-    <row r="9" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>52</v>
       </c>
@@ -2589,7 +2624,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="17"/>
     </row>
-    <row r="10" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>52</v>
       </c>
@@ -2616,7 +2651,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>52</v>
       </c>
@@ -2643,7 +2678,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="17"/>
     </row>
-    <row r="12" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>52</v>
       </c>
@@ -2670,7 +2705,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>52</v>
       </c>
@@ -2697,7 +2732,7 @@
       <c r="J13" s="13"/>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>52</v>
       </c>
@@ -2724,7 +2759,7 @@
       <c r="J14" s="13"/>
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>52</v>
       </c>
@@ -2751,7 +2786,7 @@
       <c r="J15" s="13"/>
       <c r="K15" s="17"/>
     </row>
-    <row r="16" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>52</v>
       </c>
@@ -2784,7 +2819,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>52</v>
       </c>
@@ -2817,7 +2852,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>52</v>
       </c>
@@ -2850,7 +2885,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>52</v>
       </c>

--- a/files/CARRIAGE/STDHT_MGN9/BOM_HextrudORT_Carriage_STDHT_MGN9.xlsx
+++ b/files/CARRIAGE/STDHT_MGN9/BOM_HextrudORT_Carriage_STDHT_MGN9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HextrudORT\files\CARRIAGE\STDHT_MGN9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F8F31E-32E6-43E0-AD6F-7EFEAE195823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CC8BF6-5008-4EF0-AE60-18CCDCBD310B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -192,10 +192,6 @@
 - Support interface: yes
 - Full fan at first support interfacing layer</t>
     </r>
-  </si>
-  <si>
-    <t>https://www.thingiverse.com/thing:4786341
-alternate: https://github.com/MirageC79/HextrudORT/tree/main/files/STDHT_MGN9_NOVA/STL</t>
   </si>
   <si>
     <t>Thingiverse
@@ -380,6 +376,10 @@
       <t xml:space="preserve">
 </t>
     </r>
+  </si>
+  <si>
+    <t>https://www.thingiverse.com/thing:4793215
+alternate: https://github.com/MirageC79/HextrudORT/tree/main/files/CARRIAGE/STDHT_MGN9/STL</t>
   </si>
 </sst>
 </file>
@@ -2348,8 +2348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="2" spans="1:11" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>38</v>
@@ -2426,14 +2426,14 @@
         <v>1</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J2" s="24"/>
       <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>38</v>
@@ -2443,26 +2443,26 @@
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>48</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>38</v>
@@ -2472,26 +2472,26 @@
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>45</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>46</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="17"/>
     </row>
     <row r="5" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>38</v>
@@ -2518,7 +2518,7 @@
     </row>
     <row r="6" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>39</v>
@@ -2531,7 +2531,7 @@
         <v>27</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>38</v>
@@ -2545,7 +2545,7 @@
     </row>
     <row r="7" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>39</v>
@@ -2555,10 +2555,10 @@
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>38</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="8" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>39</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="9" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>39</v>
@@ -2626,7 +2626,7 @@
     </row>
     <row r="10" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>39</v>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="11" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>39</v>
@@ -2680,7 +2680,7 @@
     </row>
     <row r="12" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>39</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="13" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>39</v>
@@ -2734,7 +2734,7 @@
     </row>
     <row r="14" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>39</v>
@@ -2761,7 +2761,7 @@
     </row>
     <row r="15" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>39</v>
@@ -2788,7 +2788,7 @@
     </row>
     <row r="16" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>37</v>
@@ -2798,7 +2798,7 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>15</v>
@@ -2810,18 +2810,18 @@
         <v>1</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>37</v>
@@ -2846,15 +2846,15 @@
         <v>40</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>37</v>
@@ -2879,15 +2879,15 @@
         <v>41</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>37</v>
@@ -2910,10 +2910,10 @@
       </c>
       <c r="I19" s="16"/>
       <c r="J19" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
